--- a/docs/db_forestal_sample.xlsx
+++ b/docs/db_forestal_sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="298" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="2" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="401" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Muestra EIA-CITES" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="519">
   <si>
     <t>orden</t>
   </si>
@@ -3484,6 +3484,11 @@
     </r>
   </si>
   <si>
+    <t>1. Se han tumbado y trasladado hasta el aserradero todos los árboles aprovechables de cedro y caoba, razón por la cual la empresa no cuenta con saldos en campo para movilizar madera, pero según al balance de extracción de fecha 21/09/09, el cedro y caoba aun tedrían saldo a movilizar. 
+2. Existencia de trozas de estoraque, shihuahuaco y quinilla en el patio de trozas para movilizarse en la zafra 2010. 
+3. Los 22 árboles aprovechables verificados fueron hallados.</t>
+  </si>
+  <si>
     <t>026-2009-OSINFOR-DSCFSS</t>
   </si>
   <si>
@@ -4389,7 +4394,7 @@
     <numFmt formatCode="0%" numFmtId="165"/>
     <numFmt formatCode="0" numFmtId="166"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <name val="Verdana"/>
       <charset val="1"/>
@@ -4440,13 +4445,6 @@
       <b val="true"/>
       <color rgb="00000000"/>
       <sz val="9"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -4505,7 +4503,7 @@
       <sz val="9"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4521,7 +4519,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFF99"/>
-        <bgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -4534,6 +4532,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF66"/>
+        <bgColor rgb="00FFFF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -4602,7 +4606,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -4626,10 +4630,6 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -4686,53 +4686,53 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="11" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="12" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="10" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
@@ -4744,55 +4744,114 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="11" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="164" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="12" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="164" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="12" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="13" numFmtId="164" xfId="20">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="15" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="10" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="10" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="11" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="16" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="5" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="6" fontId="12" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal_SUP 2009" xfId="15"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF66"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -4803,32 +4862,32 @@
   </sheetPr>
   <dimension ref="A1:U88"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="K3" activeCellId="0" pane="topLeft" sqref="K3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="H1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L3" activeCellId="0" pane="topLeft" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.0196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.5019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.7882352941176"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.6313725490196"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="33.7921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.2745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.278431372549"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="44.2509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.4156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.6705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.8352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.2862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.643137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="24.9882352941176"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.9803921568627"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.0549019607843"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="60.7411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="44.5843137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.7725490196079"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.7490196078431"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4891,7 +4950,7 @@
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -4952,7 +5011,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -4993,7 +5052,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
@@ -5056,7 +5115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -5095,7 +5154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -5134,7 +5193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -5173,7 +5232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -5234,7 +5293,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
@@ -5273,7 +5332,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="1" t="n">
         <v>9</v>
       </c>
@@ -5312,7 +5371,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
       <c r="A11" s="17" t="n">
         <v>10</v>
       </c>
@@ -5351,7 +5410,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
@@ -5388,7 +5447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
       <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
@@ -5449,7 +5508,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
       <c r="A14" s="17" t="n">
         <v>13</v>
       </c>
@@ -5488,7 +5547,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="1" t="n">
         <v>14</v>
       </c>
@@ -5527,7 +5586,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
@@ -5588,7 +5647,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
@@ -5629,7 +5688,7 @@
       <c r="T17" s="2"/>
       <c r="U17" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
@@ -5670,7 +5729,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
@@ -5731,7 +5790,7 @@
       <c r="T19" s="22"/>
       <c r="U19" s="23"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
@@ -5792,7 +5851,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="13"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
@@ -5833,7 +5892,7 @@
       <c r="T21" s="2"/>
       <c r="U21" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
@@ -5874,7 +5933,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
@@ -5915,7 +5974,7 @@
       <c r="T23" s="2"/>
       <c r="U23" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
@@ -5956,7 +6015,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
@@ -5997,7 +6056,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="1" t="n">
         <v>25</v>
       </c>
@@ -6058,7 +6117,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="1" t="n">
         <v>26</v>
       </c>
@@ -6099,7 +6158,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
       <c r="A28" s="1" t="n">
         <v>27</v>
       </c>
@@ -6140,7 +6199,7 @@
       <c r="T28" s="2"/>
       <c r="U28" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
@@ -6183,7 +6242,7 @@
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
@@ -6244,7 +6303,7 @@
       <c r="T30" s="2"/>
       <c r="U30" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="1" t="n">
         <v>30</v>
       </c>
@@ -6285,7 +6344,7 @@
       <c r="T31" s="2"/>
       <c r="U31" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="A32" s="17" t="n">
         <v>31</v>
       </c>
@@ -6326,7 +6385,7 @@
       <c r="T32" s="19"/>
       <c r="U32" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
       <c r="A33" s="17" t="n">
         <v>32</v>
       </c>
@@ -6367,7 +6426,7 @@
       <c r="T33" s="19"/>
       <c r="U33" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
       <c r="A34" s="17" t="n">
         <v>33</v>
       </c>
@@ -6408,7 +6467,7 @@
       <c r="T34" s="25"/>
       <c r="U34" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="1" t="n">
         <v>34</v>
       </c>
@@ -6469,7 +6528,7 @@
       <c r="T35" s="2"/>
       <c r="U35" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="1" t="n">
         <v>35</v>
       </c>
@@ -6510,7 +6569,7 @@
       <c r="T36" s="9"/>
       <c r="U36" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
@@ -6571,7 +6630,7 @@
       <c r="T37" s="2"/>
       <c r="U37" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="1" t="n">
         <v>37</v>
       </c>
@@ -6612,7 +6671,7 @@
       <c r="T38" s="2"/>
       <c r="U38" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="1" t="n">
         <v>38</v>
       </c>
@@ -6653,7 +6712,7 @@
       <c r="T39" s="2"/>
       <c r="U39" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="1" t="n">
         <v>39</v>
       </c>
@@ -6694,7 +6753,7 @@
       <c r="T40" s="2"/>
       <c r="U40" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="1" t="n">
         <v>40</v>
       </c>
@@ -6735,7 +6794,7 @@
       <c r="T41" s="9"/>
       <c r="U41" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
       <c r="A42" s="1" t="n">
         <v>41</v>
       </c>
@@ -6794,7 +6853,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
       <c r="A43" s="17" t="n">
         <v>42</v>
       </c>
@@ -6833,7 +6892,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="1" t="n">
         <v>43</v>
       </c>
@@ -6876,7 +6935,7 @@
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="45">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
       <c r="A45" s="1" t="n">
         <v>44</v>
       </c>
@@ -6935,7 +6994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="46">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
       <c r="A46" s="17" t="n">
         <v>45</v>
       </c>
@@ -6974,7 +7033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="47">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="1" t="n">
         <v>46</v>
       </c>
@@ -7013,7 +7072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="48">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
       <c r="A48" s="1" t="n">
         <v>47</v>
       </c>
@@ -7052,7 +7111,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="49">
       <c r="A49" s="1" t="n">
         <v>48</v>
       </c>
@@ -7093,7 +7152,7 @@
       <c r="T49" s="2"/>
       <c r="U49" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="50">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
@@ -7134,7 +7193,7 @@
       <c r="T50" s="9"/>
       <c r="U50" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="51">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="51">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
@@ -7195,7 +7254,7 @@
       <c r="T51" s="2"/>
       <c r="U51" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="52">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="52">
       <c r="A52" s="1" t="n">
         <v>51</v>
       </c>
@@ -7236,7 +7295,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="53">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="53">
       <c r="A53" s="1" t="n">
         <v>52</v>
       </c>
@@ -7295,7 +7354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="54">
       <c r="A54" s="1" t="n">
         <v>53</v>
       </c>
@@ -7334,7 +7393,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="55">
       <c r="A55" s="1" t="n">
         <v>54</v>
       </c>
@@ -7373,7 +7432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="56">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="56">
       <c r="A56" s="1" t="n">
         <v>55</v>
       </c>
@@ -7412,7 +7471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="57">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="57">
       <c r="A57" s="1" t="n">
         <v>56</v>
       </c>
@@ -7471,7 +7530,7 @@
       <c r="T57" s="28"/>
       <c r="U57" s="29"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="58">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
       <c r="A58" s="1" t="n">
         <v>57</v>
       </c>
@@ -7530,7 +7589,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="59">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="59">
       <c r="A59" s="1" t="n">
         <v>58</v>
       </c>
@@ -7569,7 +7628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="60">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="60">
       <c r="A60" s="1" t="n">
         <v>59</v>
       </c>
@@ -7608,7 +7667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="61">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="61">
       <c r="A61" s="17" t="n">
         <v>60</v>
       </c>
@@ -7647,7 +7706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="62">
       <c r="A62" s="17" t="n">
         <v>61</v>
       </c>
@@ -7686,7 +7745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="63">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="63">
       <c r="A63" s="1" t="n">
         <v>62</v>
       </c>
@@ -7725,7 +7784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="64">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="64">
       <c r="A64" s="1" t="n">
         <v>63</v>
       </c>
@@ -7764,7 +7823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="65">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="65">
       <c r="A65" s="1" t="n">
         <v>64</v>
       </c>
@@ -7805,7 +7864,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="66">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="66">
       <c r="A66" s="1" t="n">
         <v>65</v>
       </c>
@@ -7846,7 +7905,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="67">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="67">
       <c r="A67" s="1" t="n">
         <v>66</v>
       </c>
@@ -7887,7 +7946,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="68">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
       <c r="A68" s="1" t="n">
         <v>67</v>
       </c>
@@ -7946,7 +8005,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="69">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="69">
       <c r="A69" s="17" t="n">
         <v>68</v>
       </c>
@@ -7987,7 +8046,7 @@
       <c r="T69" s="19"/>
       <c r="U69" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="70">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="70">
       <c r="A70" s="1" t="n">
         <v>69</v>
       </c>
@@ -8026,7 +8085,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="71">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="71">
       <c r="A71" s="1" t="n">
         <v>70</v>
       </c>
@@ -8065,7 +8124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="72">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
       <c r="A72" s="17" t="n">
         <v>71</v>
       </c>
@@ -8126,7 +8185,7 @@
       <c r="T72" s="19"/>
       <c r="U72" s="20"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="73">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="73">
       <c r="A73" s="1" t="n">
         <v>72</v>
       </c>
@@ -8167,7 +8226,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.5" outlineLevel="0" r="74">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
       <c r="A74" s="17" t="n">
         <v>73</v>
       </c>
@@ -8208,7 +8267,7 @@
       <c r="T74" s="25"/>
       <c r="U74" s="26"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="75">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="75">
       <c r="A75" s="1" t="n">
         <v>74</v>
       </c>
@@ -8269,7 +8328,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="76">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="76">
       <c r="A76" s="1" t="n">
         <v>75</v>
       </c>
@@ -8312,7 +8371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="77">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="77">
       <c r="A77" s="1" t="n">
         <v>76</v>
       </c>
@@ -8355,7 +8414,7 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="78">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="78">
       <c r="A78" s="1" t="n">
         <v>77</v>
       </c>
@@ -8414,7 +8473,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="79">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="79">
       <c r="A79" s="1" t="n">
         <v>78</v>
       </c>
@@ -8455,7 +8514,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="80">
       <c r="A80" s="1" t="n">
         <v>79</v>
       </c>
@@ -8516,7 +8575,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="81">
       <c r="A81" s="1" t="n">
         <v>80</v>
       </c>
@@ -8555,7 +8614,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="82">
       <c r="A82" s="1" t="n">
         <v>81</v>
       </c>
@@ -8616,7 +8675,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="83">
       <c r="A83" s="1" t="n">
         <v>82</v>
       </c>
@@ -8657,7 +8716,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="15"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="84">
       <c r="A84" s="1" t="n">
         <v>83</v>
       </c>
@@ -8696,7 +8755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="85">
       <c r="A85" s="1" t="n">
         <v>84</v>
       </c>
@@ -8735,7 +8794,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="86">
       <c r="A86" s="1" t="n">
         <v>85</v>
       </c>
@@ -8774,7 +8833,7 @@
         <v>258</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="87">
       <c r="A87" s="1" t="n">
         <v>86</v>
       </c>
@@ -8813,7 +8872,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.3" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="88">
       <c r="A88" s="1" t="n">
         <v>87</v>
       </c>
@@ -8870,17 +8929,20 @@
   </sheetPr>
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I5" activeCellId="0" pane="topLeft" sqref="I5"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A17" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A23" activeCellId="0" pane="topLeft" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.6705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.4588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.7725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.7490196078431"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="25.35" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="1">
       <c r="A1" s="30" t="s">
         <v>263</v>
       </c>
@@ -8939,7 +9001,7 @@
         <v>280</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="132.8" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="116.4" outlineLevel="0" r="2">
       <c r="A2" s="39" t="s">
         <v>281</v>
       </c>
@@ -8980,7 +9042,7 @@
       <c r="R2" s="41"/>
       <c r="S2" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="120.85" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="105.95" outlineLevel="0" r="3">
       <c r="A3" s="39" t="s">
         <v>287</v>
       </c>
@@ -9015,7 +9077,7 @@
       <c r="R3" s="41"/>
       <c r="S3" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="4">
       <c r="A4" s="39" t="s">
         <v>291</v>
       </c>
@@ -9052,7 +9114,7 @@
       <c r="R4" s="41"/>
       <c r="S4" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="5">
       <c r="A5" s="39" t="s">
         <v>295</v>
       </c>
@@ -9089,7 +9151,7 @@
       <c r="R5" s="41"/>
       <c r="S5" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="6">
       <c r="A6" s="39" t="s">
         <v>297</v>
       </c>
@@ -9124,7 +9186,7 @@
       <c r="R6" s="41"/>
       <c r="S6" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="144.75" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="126.85" outlineLevel="0" r="7">
       <c r="A7" s="39" t="s">
         <v>300</v>
       </c>
@@ -9159,7 +9221,7 @@
       <c r="R7" s="41"/>
       <c r="S7" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="8">
       <c r="A8" s="39" t="s">
         <v>302</v>
       </c>
@@ -9194,7 +9256,7 @@
       <c r="R8" s="41"/>
       <c r="S8" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="108.95" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="9">
       <c r="A9" s="39" t="s">
         <v>306</v>
       </c>
@@ -9229,7 +9291,7 @@
       <c r="R9" s="41"/>
       <c r="S9" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="120.85" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="105.95" outlineLevel="0" r="10">
       <c r="A10" s="39" t="s">
         <v>308</v>
       </c>
@@ -9266,7 +9328,7 @@
       <c r="R10" s="41"/>
       <c r="S10" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="11">
       <c r="A11" s="39" t="s">
         <v>312</v>
       </c>
@@ -9301,7 +9363,7 @@
       <c r="R11" s="41"/>
       <c r="S11" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="132.8" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="105.95" outlineLevel="0" r="12">
       <c r="A12" s="43" t="s">
         <v>314</v>
       </c>
@@ -9338,7 +9400,7 @@
       <c r="R12" s="44"/>
       <c r="S12" s="44"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="192.5" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="168.65" outlineLevel="0" r="13">
       <c r="A13" s="39" t="s">
         <v>319</v>
       </c>
@@ -9375,7 +9437,7 @@
       <c r="R13" s="41"/>
       <c r="S13" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="14">
       <c r="A14" s="39" t="s">
         <v>324</v>
       </c>
@@ -9412,7 +9474,7 @@
       <c r="R14" s="41"/>
       <c r="S14" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="15">
       <c r="A15" s="39" t="s">
         <v>328</v>
       </c>
@@ -9449,7 +9511,7 @@
       <c r="R15" s="41"/>
       <c r="S15" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="16">
       <c r="A16" s="39" t="s">
         <v>332</v>
       </c>
@@ -9484,7 +9546,7 @@
       <c r="R16" s="41"/>
       <c r="S16" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="74.6" outlineLevel="0" r="17">
       <c r="A17" s="39" t="s">
         <v>336</v>
       </c>
@@ -9519,7 +9581,7 @@
       <c r="R17" s="41"/>
       <c r="S17" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="108.95" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="18">
       <c r="A18" s="39" t="s">
         <v>339</v>
       </c>
@@ -9554,7 +9616,7 @@
       <c r="R18" s="41"/>
       <c r="S18" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="97" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="19">
       <c r="A19" s="39" t="s">
         <v>343</v>
       </c>
@@ -9593,7 +9655,7 @@
       <c r="R19" s="41"/>
       <c r="S19" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="20">
       <c r="A20" s="39" t="s">
         <v>349</v>
       </c>
@@ -9630,7 +9692,7 @@
       <c r="R20" s="41"/>
       <c r="S20" s="41"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="132.8" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="116.4" outlineLevel="0" r="21">
       <c r="A21" s="39" t="s">
         <v>352</v>
       </c>
@@ -9683,21 +9745,19 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A40" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A48" activeCellId="0" pane="topLeft" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="9.06666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="48" width="11.5098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="7.76078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="48" width="7.34509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="67.0823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="4.32549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="47" width="27.3019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="48" width="10.1960784313725"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="49" width="67.6039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="50" width="8.36470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.7490196078431"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="1">
       <c r="A1" s="51" t="s">
         <v>263</v>
       </c>
@@ -9717,7 +9777,7 @@
         <v>356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="2">
       <c r="A2" s="54" t="s">
         <v>357</v>
       </c>
@@ -9737,227 +9797,227 @@
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="168.65" outlineLevel="0" r="3">
-      <c r="A3" s="57" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="147.75" outlineLevel="0" r="3">
+      <c r="A3" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="58" t="s">
         <v>364</v>
       </c>
       <c r="F3" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="241" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="210.4" outlineLevel="0" r="4">
       <c r="A4" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="58" t="s">
         <v>368</v>
       </c>
       <c r="F4" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="252.95" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="220.85" outlineLevel="0" r="5">
       <c r="A5" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="58" t="s">
         <v>372</v>
       </c>
       <c r="F5" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="180.55" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="158.2" outlineLevel="0" r="6">
       <c r="A6" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="58" t="s">
         <v>376</v>
       </c>
       <c r="F6" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="7">
       <c r="A7" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="59" t="s">
         <v>380</v>
       </c>
       <c r="F7" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="8">
       <c r="A8" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="58" t="s">
         <v>384</v>
       </c>
       <c r="F8" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="9">
       <c r="A9" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="59" t="s">
         <v>388</v>
       </c>
       <c r="F9" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="10">
       <c r="A10" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="59" t="s">
         <v>390</v>
       </c>
       <c r="F10" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="11">
       <c r="A11" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="58" t="s">
         <v>395</v>
       </c>
       <c r="F11" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="12">
       <c r="A12" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>397</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="57" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="58" t="s">
         <v>400</v>
       </c>
       <c r="F12" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="13">
       <c r="A13" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="57" t="s">
         <v>403</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="59" t="s">
         <v>404</v>
       </c>
       <c r="F13" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="156.7" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="137.3" outlineLevel="0" r="14">
       <c r="A14" s="54" t="s">
         <v>405</v>
       </c>
@@ -9970,54 +10030,54 @@
       <c r="D14" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="60" t="s">
         <v>408</v>
       </c>
       <c r="F14" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="15">
       <c r="A15" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="57" t="s">
         <v>411</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="58" t="s">
         <v>412</v>
       </c>
       <c r="F15" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="16">
-      <c r="A16" s="57" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="16">
+      <c r="A16" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="57" t="s">
         <v>415</v>
       </c>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="58" t="s">
         <v>416</v>
       </c>
       <c r="F16" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="17">
       <c r="A17" s="54" t="s">
         <v>417</v>
       </c>
@@ -10030,14 +10090,14 @@
       <c r="D17" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="60" t="s">
         <v>420</v>
       </c>
       <c r="F17" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="18">
       <c r="A18" s="54" t="s">
         <v>421</v>
       </c>
@@ -10050,14 +10110,14 @@
       <c r="D18" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="60" t="s">
         <v>424</v>
       </c>
       <c r="F18" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="19">
       <c r="A19" s="54" t="s">
         <v>425</v>
       </c>
@@ -10070,134 +10130,134 @@
       <c r="D19" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E19" s="63" t="s">
+      <c r="E19" s="60" t="s">
         <v>428</v>
       </c>
       <c r="F19" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="20">
       <c r="A20" s="54" t="s">
         <v>429</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>430</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="61" t="s">
         <v>431</v>
       </c>
       <c r="D20" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="62" t="s">
         <v>432</v>
       </c>
       <c r="F20" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="120.85" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="105.95" outlineLevel="0" r="21">
       <c r="A21" s="54" t="s">
         <v>433</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="61" t="s">
         <v>171</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="62" t="s">
         <v>434</v>
       </c>
       <c r="F21" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="22">
       <c r="A22" s="54" t="s">
         <v>435</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="61" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="63" t="s">
         <v>437</v>
       </c>
       <c r="F22" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="23">
       <c r="A23" s="54" t="s">
         <v>438</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="61" t="s">
         <v>440</v>
       </c>
       <c r="D23" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="63" t="s">
         <v>441</v>
       </c>
       <c r="F23" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="24">
       <c r="A24" s="54" t="s">
         <v>442</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="61" t="s">
         <v>444</v>
       </c>
       <c r="D24" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="63" t="s">
         <v>445</v>
       </c>
       <c r="F24" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="25">
       <c r="A25" s="54" t="s">
         <v>446</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="61" t="s">
         <v>448</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="63" t="s">
         <v>449</v>
       </c>
       <c r="F25" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="26">
       <c r="A26" s="54" t="s">
         <v>450</v>
       </c>
@@ -10210,54 +10270,54 @@
       <c r="D26" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="63" t="s">
+      <c r="E26" s="60" t="s">
         <v>453</v>
       </c>
       <c r="F26" s="56" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="288.8" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="252.2" outlineLevel="0" r="27">
       <c r="A27" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="57" t="s">
         <v>456</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="58" t="s">
         <v>457</v>
       </c>
       <c r="F27" s="56" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="28">
       <c r="A28" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="58" t="s">
         <v>460</v>
       </c>
       <c r="F28" s="56" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="29">
       <c r="A29" s="54" t="s">
         <v>461</v>
       </c>
@@ -10270,34 +10330,34 @@
       <c r="D29" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="63" t="s">
         <v>464</v>
       </c>
       <c r="F29" s="56" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="216.4" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="189.55" outlineLevel="0" r="30">
       <c r="A30" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="58" t="s">
         <v>468</v>
       </c>
       <c r="F30" s="56" t="n">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="61.15" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="53.7" outlineLevel="0" r="31">
       <c r="A31" s="54" t="s">
         <v>469</v>
       </c>
@@ -10317,261 +10377,261 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="32">
-      <c r="A32" s="54" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="32">
+      <c r="A32" s="64" t="s">
         <v>314</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="64" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="55" t="s">
-        <v>317</v>
-      </c>
-      <c r="F32" s="56" t="n">
+      <c r="E32" s="65" t="s">
+        <v>472</v>
+      </c>
+      <c r="F32" s="66" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.25" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="43.25" outlineLevel="0" r="33">
       <c r="A33" s="54" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D33" s="54" t="s">
         <v>284</v>
       </c>
       <c r="E33" s="55" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F33" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="73.1" outlineLevel="0" r="34">
-      <c r="A34" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="B34" s="58" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="34">
+      <c r="A34" s="54" t="s">
         <v>477</v>
       </c>
-      <c r="C34" s="58" t="s">
+      <c r="B34" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="C34" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="D34" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="E34" s="59" t="s">
-        <v>479</v>
+      <c r="E34" s="58" t="s">
+        <v>480</v>
       </c>
       <c r="F34" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="288.8" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="252.2" outlineLevel="0" r="35">
       <c r="A35" s="54" t="s">
-        <v>480</v>
-      </c>
-      <c r="B35" s="60" t="s">
         <v>481</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="C35" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="D35" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="61" t="s">
-        <v>483</v>
+      <c r="E35" s="58" t="s">
+        <v>484</v>
       </c>
       <c r="F35" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="384.3" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="335.05" outlineLevel="0" r="36">
       <c r="A36" s="54" t="s">
-        <v>484</v>
-      </c>
-      <c r="B36" s="60" t="s">
         <v>485</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="D36" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="E36" s="61" t="s">
-        <v>487</v>
+      <c r="E36" s="58" t="s">
+        <v>488</v>
       </c>
       <c r="F36" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="276.85" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="241.75" outlineLevel="0" r="37">
       <c r="A37" s="54" t="s">
-        <v>488</v>
-      </c>
-      <c r="B37" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="B37" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="C37" s="57" t="s">
+        <v>491</v>
+      </c>
+      <c r="D37" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="E37" s="61" t="s">
-        <v>491</v>
+      <c r="E37" s="58" t="s">
+        <v>492</v>
       </c>
       <c r="F37" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="120.85" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="105.95" outlineLevel="0" r="38">
       <c r="A38" s="54" t="s">
-        <v>492</v>
-      </c>
-      <c r="B38" s="60" t="s">
         <v>493</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="C38" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="D38" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E38" s="61" t="s">
-        <v>495</v>
+      <c r="E38" s="58" t="s">
+        <v>496</v>
       </c>
       <c r="F38" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="252.95" outlineLevel="0" r="39">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="220.85" outlineLevel="0" r="39">
       <c r="A39" s="54" t="s">
-        <v>496</v>
-      </c>
-      <c r="B39" s="60" t="s">
         <v>497</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="C39" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="D39" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E39" s="61" t="s">
-        <v>499</v>
+      <c r="E39" s="58" t="s">
+        <v>500</v>
       </c>
       <c r="F39" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="40">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="40">
       <c r="A40" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="B40" s="60" t="s">
+        <v>501</v>
+      </c>
+      <c r="B40" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E40" s="61" t="s">
-        <v>501</v>
+      <c r="E40" s="58" t="s">
+        <v>502</v>
       </c>
       <c r="F40" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="32.8" outlineLevel="0" r="41">
       <c r="A41" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="B41" s="60" t="s">
         <v>503</v>
       </c>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="C41" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="D41" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="E41" s="61" t="s">
-        <v>505</v>
+      <c r="E41" s="58" t="s">
+        <v>506</v>
       </c>
       <c r="F41" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="85.05" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="64.15" outlineLevel="0" r="42">
       <c r="A42" s="54" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B42" s="54" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C42" s="54" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D42" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="E42" s="63" t="s">
-        <v>509</v>
+      <c r="E42" s="60" t="s">
+        <v>510</v>
       </c>
       <c r="F42" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="37.3" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="22.35" outlineLevel="0" r="43">
       <c r="A43" s="54" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B43" s="54" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C43" s="54" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D43" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E43" s="63" t="s">
-        <v>513</v>
+      <c r="E43" s="60" t="s">
+        <v>514</v>
       </c>
       <c r="F43" s="56" t="n">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="108.95" outlineLevel="0" r="44">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="95.5" outlineLevel="0" r="44">
       <c r="A44" s="54" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B44" s="54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D44" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="65" t="s">
-        <v>517</v>
+      <c r="E44" s="62" t="s">
+        <v>518</v>
       </c>
       <c r="F44" s="56" t="s">
         <v>318</v>
